--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>case_name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>headers</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>expect_res</t>
   </si>
   <si>
@@ -155,7 +152,7 @@
   </si>
   <si>
     <r>
-      <t>{"name": "</t>
+      <t>"{"code: "100000","msg": "</t>
     </r>
     <r>
       <rPr>
@@ -164,6 +161,25 @@
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"data": {""name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
       <t>范冰冰</t>
     </r>
     <r>
@@ -174,12 +190,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>","password":"123456"}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"{"code: "100000","msg": "</t>
+      <t>,"password": "e10adc3949ba59abbe56e057f20f883e"}}"</t>
+    </r>
+  </si>
+  <si>
+    <t>test_user_reg_exist</t>
+  </si>
+  <si>
+    <r>
+      <t>"{"code": "100001","msg": "</t>
     </r>
     <r>
       <rPr>
@@ -188,7 +207,7 @@
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
-      <t>成功</t>
+      <t>失败，用户已存在</t>
     </r>
     <r>
       <rPr>
@@ -198,7 +217,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,"data": {""name": "</t>
+      <t>","data": {"name": "</t>
     </r>
     <r>
       <rPr>
@@ -207,7 +226,7 @@
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
-      <t>范冰冰</t>
+      <t>张三</t>
     </r>
     <r>
       <rPr>
@@ -217,61 +236,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,"password": "e10adc3949ba59abbe56e057f20f883e"}}"</t>
-    </r>
-  </si>
-  <si>
-    <t>test_user_reg_exist</t>
-  </si>
-  <si>
-    <r>
-      <t>"{"code": "100001","msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>失败，用户已存在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","data": {"name": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>张三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>","password":"e10adc3949ba59abbe56e057f20f883e"}}"</t>
     </r>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>FORM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>args</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name": "范冰冰","password":"123456"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name": "张三","password":"123456"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +304,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -319,11 +337,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -334,10 +355,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,15 +643,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,53 +662,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="76.5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" ht="82.5">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -695,15 +732,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,50 +754,60 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="228" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="228">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="231">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="231" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>case_name</t>
   </si>
@@ -98,54 +98,6 @@
   </si>
   <si>
     <t>test_user_login_password_wrong</t>
-  </si>
-  <si>
-    <r>
-      <t>{"name": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>张三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","password":"1234567"}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h1&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>失败，用户名或密码错误</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/h1&gt;</t>
-    </r>
   </si>
   <si>
     <t>test_user_reg_normal</t>
@@ -268,6 +220,21 @@
   <si>
     <t>{"name": "张三","password":"123456"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hn216.api.yesapi.cn/?s=App.User.Login</t>
+  </si>
+  <si>
+    <t>test_user_login</t>
+  </si>
+  <si>
+    <t>{"username": "A","app_key": "709F2E592E5108A4AA566A42239C3D6C","password":"f66f042cacc621c0235c9be988379b8f"}</t>
+  </si>
+  <si>
+    <t>{"username": "A","app_key": "709F2E592E5108A4AA566A42239C3D6C","password":"f66f042cacc621c0235c9be988379b88"}</t>
+  </si>
+  <si>
+    <t>err_msg":"登录失败，密码错误或已被封号",</t>
   </si>
 </sst>
 </file>
@@ -643,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,13 +629,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -685,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -697,36 +664,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="82.5">
+    <row r="3" spans="1:7" ht="225">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="225">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -735,7 +721,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -754,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -766,7 +752,7 @@
     </row>
     <row r="2" spans="1:8" ht="228">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -778,18 +764,18 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="231">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -801,13 +787,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
